--- a/500all/speech_level/speeches_CHRG-114hhrg96987.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96987.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400419</t>
   </si>
   <si>
-    <t>Greg Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. Now that we have killed the lights, we will call the subcommittee on Communications and Technology to order, and welcome our witnesses here today, and our colleagues. Thanks for your patience with our late start. We had a vote on the floor, as you know, but we appreciate your being here today, and look forward to your testimony.    From the time the Administration announced their intent to transition IANA functions from ICANN to the international multi-stakeholder community, I have had very serious concerns about the potential risks associated with that move. We have said time and again that this is far too important to rush, and that we must carefully consider all of the consequences and outcomes before we ring a bell that cannot be un-rung.    This subcommittee has been committed to oversight of the transition process, and ensuring that there are safeguards in place to improve the odds of a successful transition, and preserve the Internet we all committed to protecting. Last Congress we held a hearing on this topic and passed the Dot Com Act out of the full Committee almost exactly a year ago. The goals of the Dot Com Act are consistent with our position. It is the appropriate role of this subcommittee to oversee the NTIA, and, in this case, ensure that it thoroughly evaluates any proposal. As part of this oversight, we have already asked the GAO to begin an inquiry into the process that examines the existing contract, risks to be considered, and any safeguards that can be put into place to reduce the threats to the future operations and functions of the Internet.    Many have come to us to emphasize the importance of the IANA transition to the continued success of the multi-stakeholder model of governance, and to urge us to be mindful of the way the international community perceives our actions. We recognize these considerations, but we also feel it would be irresponsible to ignore the very real risks associated with a relinquishment of the U.S. role in Internet governance, no matter how symbolic. This is why we have taken the measured approach that we will discuss today.    NTIA put forward a set of criteria that they say any acceptable transition proposal must meet, all of which are essential to ensuring a vibrant Internet, should NTIA transition IANA to the multi-stakeholder community. NTIA should be applauded for this, and for its willingness to stick to these criteria, despite the difficulty in meeting them. Our goal, through this legislation, and our efforts in the subcommittee, is to ensure that these conditions are met, and that the myriad unforeseen complications that could arise in meeting them are addressed.    I am pleased to report the staff from both sides of the aisle have been working together to produce an amendment to the Dot Com Act that meets these goals that we all share without unduly burdening the agency as it works towards its goal. While NTIA works within its proper role in the multi-stakeholder model, we too are working with our proper role as oversight authority. While we have not reached agreement on final text, our discussions have been very promising, and there is an important role for Congress in this transition, and I commend the staff for their hard work.    I would also like to take a moment to touch on the timeline of the transition. It seems that everyone, including NTIA Administrator Larry Strickling, has acknowledged that the important work needed to facilitate a transition cannot be done before the existing contract expires on September 30, 2015. I urge NTIA to exercise the 2-year renewal option on the contract. Doing so allows the deliberative process to continue without artificial pressure or time constraints, and this won't provide any additional hurdle to the transition itself. Should NTIA and ICANN come to agreement on an acceptable proposal before the 2-year period is up, the contract can be cancelled to facilitate that transition.    I am pleased to have our panel of stakeholder witnesses here today to give us an update on their views of this transition. In the past year thousands of hours of hard work have taken place, many by our witnesses at the witness table today, to move this forward. Our last hearing gave voice to concerns that have been incorporated into the work of the multi-stakeholder working groups, and this is an opportunity for us to once again play our role in the process. I thank the witnesses for being here, and I look forward to your expertise.</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>400124</t>
   </si>
   <si>
-    <t>Anna G. Eshoo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you, Mr. Chairman, and good afternoon to all the members, and to all of our witnesses. We welcome you here, and we thank you for your willingness to come and share your thoughts with us about--this is an important topic. Earlier this year Singapore's Minister of Communication and Information, Dr. Yaacob Bin--Ibrahim stated that ``no one person, organization, or even country has a monopoly on the expertise and wisdom needed to meet the challenges that we are facing on the Internet on a day to day basis.''    I agree with that quote, and his thought. It is why Congress, on a bipartisan, bicameral basis, has consistently stated that the United States should continue to preserve and advance the multi-stakeholder governance model under which the Internet has thrived. Our leadership in the IANA transition is critical, but I think inserting a unilateral role for our government, as the Dot Com Act does, undermines the legitimacy of the multi-stakeholder model, and it emboldens those that don't agree with us. Some call them our enemies, but I think that emboldens them.    For nearly 20 years it has been U.S. policy to transition the government's role in administering the domain name system to the multi-stakeholder global community, and by requiring the GAO to study the pros and cons of making such a transition, the Dot Com Act fails to recognize this history. Equally concerning is the opposition from the stakeholder community, including NetChoice's Steve DelBianco, who is here, and is going to be testifying today, that a post-analysis by GAO of the transition proposal is no longer necessary.    The success of the IANA transition depends on built-in mechanisms for transparency and accountability, and a commitment by ICANN to resist--Mr. Chairman, I don't think the committee is in order. That means stop gabbing, to my left. It is distracting.    The success of the IANA transition depends on built-in mechanisms for transparency and accountability, and a commitment by ICANN to resist any expansion of the role government or inter-governmental organizations may play in ICANN's deliberations. Now, if the majority shares these goals, and I believe that you do, then we should work together on a bipartisan alternative to the Dot Com Act which provides a reasonable period of time for Congress, and the general public, to review the IANA transition proposal. With responsible oversight, a successful transition of those functions will preserve the Internet's guiding principles of openness, of security, of stability, and resiliency, and ensure ICANN cannot be exposed to government capture.    And, again, I would like to thank the panel of witnesses. They are really esteemed individuals in each one of their spheres of influence, and I think that each one of them understands the Internet's guiding values, and the importance of the multi-stakeholder model. So, again, I thank you, and, Mr. Chairman, I yield back the balance of my time, unless someone else would like it. Doris, would you like my time? I would be glad to yield to you, to the gentlewoman from California.</t>
   </si>
   <si>
     <t>400663</t>
   </si>
   <si>
-    <t>Doris O. Matsui</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matsui. Thank you very much, my fellow colleague. Got the wrong thing here. In 2012, with strong bipartisan congressional backing, the Administration's position was strengthened in re-affirming the current multi-stakeholder approach that has allowed the Internet to flourish here in the United States and around the world. Congress must stay united moving forward. I am pleased to hear that the Administration will not support any proposal that undermines the openness of the Internet. With over two billion users, we all know the Internet has become a necessity, and not a luxury. It plays a dominant role in the world economy. We need to continue to promote innovation and openness of the Internet around the globe. That has been the hallmark of U.S. policy. I believe the multi-stakeholder approach must continue to define Internet governance, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman, and thank our witnesses for being with us today. The Internet has quickly integrated into our everyday lives, and has become a central platform for job creation, education, business development, health care, and free expression. Therefore, the preservation of the Internet's openness and freedom should remain a high priority as NTIA prepares to transition the U.S. Government's role in the Internet's--numbering functions to a global multi-stakeholder community.    I thank the gentleman, my friend from Illinois, for introducing the Dot Com Act to ensure proper oversight of this transition. This bill will safeguard our national security interests, and allow citizens to continue to freely navigate the Internet. I look forward to hearing from our witness. And, Mr. Chairman, I would, at this time, yield to the gentleman from Illinois the balance of my time.</t>
   </si>
   <si>
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you. I want to thank Chairman Walden and Chairman Upton for holding this hearing today. While we all use the Internet, few Americans, and I am included--few Americans truly understand the underlying Internet architecture. Perhaps that is because a system that has been in place has worked so well that we don't need to think about it. The Internet remains a free and open place to exchange information and ideas, and the goal of my legislation has always been to preserve that for future generations.    What we wanted to do with the Dot Com Act has always been to exercise vigorous oversight on the transition, and make sure it is done right, the old trust but verify statement. As a legislative body, specifically in the Telecom Subcommittee, we have authority and responsibility to oversee the activities of NTIA. We get one bite at the apple with this. We would be negligent in our responsibilities to not sure that NTIA, and the Administration, is living up to its promises.    NTIA says the proposal must, and this is from them, support and enhance the multi-stakeholder model, maintain the security, stability, and resiliency of the Internet DNS, meet the needs and expectations of the global customers and partners of the IANA services, and maintain the openness of the Internet. I have concerns that these requirements that NTIA has put forth are vague at best, but allowing Congress a chance to review any proposal would hold the Administration's feet to the fire before any transition could occur. If the proposal isn't as promised, and ICANN hasn't made the necessary changes to facilitate the transition, then Congress has the chance to engage in other legislative avenues to ensure that Americans will continue to access a free and open Internet.    Bipartisan staff discussions are ongoing, and we are hopeful that an agreement can be reached to hold NTIA accountable to their own criteria and move it to the floor, and to the President's desk. We just have to be careful, by exercising congressional oversight of NTIA, because there is no turning back once this moves forward. And, Mr. Chairman, I would like to submit for the record an article that came out today, ``What Is In A Domain Name?'' by Peter Roff, and it was in U.S. News &amp; World Report.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. The subject of today's hearing is the transition of the Internet Assigned Numbers Authority, or IANA, and this function is sometimes called the Internet's phone book of Internet names and numbers, and, more simply, it is what allows Internet users to easily navigate the Web. The Internet is an unprecedented platform for economic opportunity and democratic free expression. It is used by three billion people around the globe. And because this phone book has worked so well, very few of us ever have to think about how it works, we just know it works. And that is a credit to a successful Internet governance model that uses a multi-stakeholder approach to decision-making. We all want this success story to continue, and that is why the U.S. Government has taken steps over the past two decades to get out of the way and allow the private sector to assume management of the domain name system. Put another way, we think the future of the Internet should be determined by businesses, civil society, and technical experts.    Both Republican and Democratic Administrations have supported the idea that the Internet should be governed through a decentralized bottom-up process that is free from government control, and Congress too has embraced this vision. In 2013, the House voted unanimously in support of a bill making it official U.S. policy to ``preserve and advance the successful multi-stakeholder model that governs the Internet.'' I personally believe that the transition of the IANA functions to the global multi-stakeholder community helps achieve that goal.    Since NTIA announced last March its intention to relinquish control of the IANA contract, they have made significant progress to plan for this transition. They have also made impressive strides to enhance accountability for ICANN. NTIA has clearly and consistently articulated principles for the transition, in keeping with the U.S. Government's support for the multi-stakeholder model, and an open global Internet. I believe Congress has a bipartisan interest in seeing the IANA transition executed consistent with these principles.    We all have a shared interest in transparency and accountability, and therefore thank my Republican colleagues, especially Chairman Walden and Mr. Shimkus, for working with us to address concerns with the DOTCOM Act, and I look forward to continuing our shared responsibility, conduct rigorous oversight of NTIA, and to ensure the agency lives up to its commitments for the transition. So, again, thank you to the witnesses today for sharing their perspectives that they are going to on the proposals that have been put forward, and the work that remains to be done. And thank you to both the Chairman and our Ranking Member, Ms. Eshoo, for putting this together, and the work that we are going to do together on this.    I think Mr. Doyle and Ms. Matsui--you have already spoken, right? Does anyone else want any time? He says he doesn't, so, all right, I yield back. Thank you.</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>DelBianco</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DelBianco. Chairman Walden, Ranking Member Eshoo, members of the Committee, thank you very much for having yet another important hearing on this transition. I am deeply involved at ICANN, 30 meetings and five times elected as the policy chair for the businesses constituency, and partly on the inspiration of your hearing last year, I got deeply involved in the transition planning. I represent the commercial stakeholders globally on the transition planning team.    This was a year ago in April when you held the first hearing on NTIA's plan to transition oversight, and I think that what that focused on was the fact that, over 17 years, our government has protected ICANN's multi-stakeholder model from government encroachment, and really helped ICANN to mature. The analogy I suggested to you last year is that the U.S. built this car called IANA in the 1990s, we handed the car keys to ICANN in 1998, when we created ICANN, but we kept the ownership papers, we kept the title close. We monitored their driving and their care of the vehicle for those last 17 years. But, look, it is just not sustainable for the U.S. alone to hold that title forever, especially in a post-Snowden political climate, which really has nothing to do with the DNS, but politically, it is connected.    So the NTIA asked the community for proposals to replace the stewardship role for IANA, and the global multi-stakeholder community responded to the challenge. We have had hundreds of meetings in the last several months, tens of thousands of person hours have gone in, often overnight, since we cycle through different time zones for our friends in Asia, and all around the world, and I can tell you I have learned to keep my mic on mute after 2:00 in the morning.    Our community proposals are an excellent start. I summarized them in my testimony. Let me give you some highlights. We are giving the--for the first time we are giving the community new powers to challenge the Board's decisions and actions via the independent review panel that can issue binding decisions. We are allowing the community to veto bylaws changes proposed by the Board of Directors to veto strategic plans and budgets proposed by ICANN's Board, the power to remove and individual director, and better still, to spill the entire Board if they are not listening to the community.    Now, we assessed whether these new powers give the community the accountability we need in the face of stress tests, and, Chairman Walden, you indicated a certain appreciation for that in the first hearing. Good news, they answered quite well. We did 26 stress tests, and the new mechanisms I have just described allow the community to have the powers we needed to challenge the Board decision and hold them accountable. But there were some stress tests that needed even further changes.    Last June this Committee raised some very stressful questions of our own, drawing on the Dot Com Act to put together a set of requests for GAO, Government Accountability Offices, to analyze the risks and implications for national security in U.S. agencies. Both our stress tests that I talked to you about, and your third GAO question asked, what happens if ICANN quits the affirmation of commitments? That is a great question, because they can quit with 120 days' notice, particularly if they don't have to stay in it to keep the IANA contract. So we took ICANN's commitments in the affirmation, and the periodic reviews of the community, and have baked them into ICANN's bylaws as part of the proposal we released last week. And earlier I said that if ICANN tried to take those commitments out of the bylaws, the community can block that change.    Another is we channeled your second GAO question, another one that came from the Dot Com Act. Said, what if the Government Advisory Committee changed to majority voting for its advice that they give to ICANN? This would truly expand government's power. We said, in the working group, that changing ICANN bylaws was essential so that we only are obligated to seek a mutually acceptable solution to this government advice if the government advice came over with consensus. So let them change their voting method, but only consensus carries that obligation.    Turning back to the proposals that I had earlier, we need details that we haven't provided yet. We were still in draft one, and the entire global stakeholder community has to review what we have come up with, so it will not happen by September 2015 IANA deadline. The timeline I have got here--and in my testimony shows that your Committee's good work on requesting GAO to start its analysis last June is really going to pay off.    They have been at it for several months. I have had two extensive, exhausting meetings with GAO, they are asking great questions, and it would be immensely valuable to see the GAO analysis during the comment period we are having right now, and a second one this summer, that would be a more valuable form of the Dot Com Act than having GAO only start their analysis when we are finished, and after the community has already developed their proposals. So, even with the extension, we really worry that ICANN's Board and management will resist the reforms that we are talking about, because they are tough medicine. Mr. Schaefer will address that in his testimony later on.    The role of Congress in this transition could be critical. We think you ought to insist that NTIA require ICANN to accept and implement the final form of our proposals for new accountability as a condition of getting the IANA transition, and that is why my chart has showed them in the upper right hand corner, to accept and implement, and it will be up to NTIA to make sure that that is the case. We would like you to support, and encourage, and insist upon NTIA to do that.    And I will conclude by saying this is, as you have indicated, our last chance to use the leverage that we are about to relinquish, because this driver is about to turn 18. It is time to sign over the title to this car, but not until we are sure that ICANN is answerable to the community we designed it to serve.</t>
   </si>
   <si>
@@ -139,36 +118,24 @@
     <t xml:space="preserve">    Mr. Walden. That is the expense. Anybody with a teenage knew that.    We are going to go now to Danielle Kehl, who is the Senior Policy Analyst at the New America's Open Technology Institute. Danielle, we welcome you, and thank you for participating in our hearing today.</t>
   </si>
   <si>
-    <t>Kehl</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kehl. Thank you, Chairman Walden, Ranking Member Eshoo, and members of the Subcommittee. As a researcher and active participant in global Internet governance issues, I appreciate the Committee's desire to preserve a free and open Internet, and believe that a swift and orderly IANA transition is key to achieving that goal.    While I share the Committee's concern that if the IANA transition goes badly it could harm Internet freedom, the best way to prevent that outcome, and to ensure the continued stability of the Internet's domain name system, is to support the ongoing process. The U.S. Government's oversight role has long been a political target, an exaggerated symbol that overshadows our good intentions in the global Internet governance space, and it is time to step aside, which will ultimately help us in our ongoing efforts to prevent government overreach on other Internet governance issues.    The first point that I would like to emphasize today is that this is the right time for the IANA transition to happen, and without unnecessary delay. The transition is long overdue, both historically and politically. It is the logical conclusion of the sequence that began in 1998, when the U.S. Government first announced that it would privatize the DNS, and it is a formal recognition that the Internet is now a truly global network.    There is broad consensus that no single country should have exclusive jurisdiction over the Internet's core infrastructure, and that the system needs to evolve in ways that benefit users all around the world. That is why a wide range of Internet stakeholders support the decision to complete the transition to a community-based non-governmental institution. As former FCC Commissioner Robert McDowell put it, it is time to get the government out of the Internet governance business. And we can't forget that NTIA made it clear from the very beginning that this oversight role would be temporary. The justifications for it in 2015 are considerably weaker than they were in 1998.    There is also significant evidence that if NTIA had not voluntarily decided to begin the transition, other Internet stakeholders would have tried to force its hand. For all these reasons, the decision last year to initiate the transition and establish a community-drive multi-stakeholder process is the only way to ensure that the transition happens in such a way that it addresses both the needs of the global community and the interests of the U.S. Government.    Second, the process of developing the transition and accountability proposals, as I think my colleagues on the panel will also say, is proceeding reasonably well. Last year, NTIA laid out five clear principles that any transition plan must meet, and the development of this plan is receiving significant input from a wide range of stakeholders. Yes, the process is complex, but there is still reason to believe that when the dust settles, there will be a real community consensus about what the transition should look like, and that it will include appropriate safeguards to ensure the system's ongoing stability. And NTIA is firmly positioned to reject any proposals that fail to meet its criteria.    At the heart of all of this is the question of ICANN accountability. Specifically, after it is freed from U.S. Government oversight, what will prevent ICANN from taking on a global governance role far outside of its core commitments? There are important issues that need to resolve, including how to make sure that the community has the means to correct any misuses of ICANN's power. But these questions are best addressed through the existing accountability process, whose working group recently released its initial draft proposal, 142 pages, for review.    So, finally, while I share the Committee's concern that the stakes are high, legislation like the Dot Com Act is not necessary, and, although surely unintentional, could actually make it substantially more difficult for the U.S. Government to make sure that the transition happens smoothly. Imposing a delay would appear to be an act of bad faith, and it will be poorly received internationally. It will look like an attempt to substitute the U.S. Government's judgment for the global community's. Preventing NTIA from completing the transition is also inconsistent with the previous statements that were mentioned in opening remarks about unanimous support for the multi-stakeholder Internet governance model. And, finally, it would play into the hands of foreign governments who seek to undermine the system, and strengthen their opposition to the U.S. on a broad range of free expression issues.    To conclude, I think we are all in agreement that the IANA transition is a significant opportunity for the United States and for Internet users worldwide, and we appreciate the Committee's engagement on this incredibly important issue. But the best way to ensure that it goes well, and to achieve our broader shared goal of protecting a free and open Internet is to let the community complete its work before deciding what the next step should be. Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Ms. Kehl. Appreciated your comments and your insights.    Go now to Audrey Plonk, who is the Director of Global Cyber Security and Internet Governance Policy for the Intel Corporation. Ms. Plonk, we are delighted to have you before the Committee. Please go ahead.</t>
   </si>
   <si>
-    <t>Plonk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plonk. Apologies. Good afternoon, Chairman Walden, Ranking Member Eshoo, and members of the Subcommittee. Thank you for the opportunity to testify today. I am Audrey Plonk, Director of Global Cyber Security and Internet Governance Policy at Intel. I am here to express Intel's unequivocal support for the successful and timely transition of the stewardship of the IANA functions contract in support of the multi-stakeholder community. Intel has actively followed and participated in the transition process.    Technology advances built on U.S. innovation have driven unprecedented economic growth in the U.S. and abroad. Intel has been at the center of this innovation for more than 40 years. In 2014 Intel did $55.9 billion of business, and employed 170,000 people worldwide, 60,000 in the United States. Though Intel is incorporated here, our presence, impact, and revenues span the globe.    I cannot stress enough the importance of trust to our current and future success. We have observed a trend toward diminished trust in the U.S. Government and U.S. companies, both at home and abroad. Any real or perceived failure in the transition in the form of an externally imposed or mandated delay will only heighten mistrust in the U.S. Government, and embolden governments threatened by a free and open Internet, to the detriment of the many Internet technology companies headquartered in this country.    Intel is not a provider of domain name services, nor a registry, or a registrar. We are not a contracted party to ICANN. Quite simply, we design and manufacture the computing power of the Internet. Though the IANA functions are extremely important, they are fundamentally administrative, and involve updating and maintaining three related, but separate, registries, names, numbers, and protocols.    The IANA neither makes policy, nor exercises judgment. It simply follows a mechanical process to maintain and update these registries according to explicitly defined rules. Without these functions, connected devices will not fully realize their potential to improve the lives of everyone on Earth. Today those rules are developed through multi-stakeholder processes through which all interested and affected parties participate. Much of the global debate on Internet governance centers on this process, and whether it is sufficient to govern the Internet going forward.    The most widely supported alternative to multi-stakeholder governance is multi-lateral governance, in which an intergovernmental body, such as the United Nations, makes governance decisions. In this scenario, the overall influence of the United States government is diminished to a single vote, and the ability for direct participation from industry and civil society is largely eliminated. Again, any real or perceived failure in the transition emboldens hostile governments to push this process toward the United Nations, or another intergovernmental body.    Recognizing this, the U.S. Congress has consistently and publicly supported multi-stakeholder Internet governance, as was previously mentioned in opening statements. In 2012 Congress unanimously passed a resolution to preserve, and advance, a successful multi-stakeholder model that governs the Internet today. And just last year, thanks to the foresight and leadership of this Committee, this policy was reaffirmed in H.R. 1580, which passed the House unanimously. It is Intel's view that the transition of the IANA functions is, in fact, advancing multi-stakeholder governance in line with this stated policy.    The transition is on an excellent path. As of today, there are four proposals, two complete from numbers and protocols, and two in draft format from names and accountability, covering all aspects of the transition. Most importantly, especially for this committee, and for congressional oversight, these proposals have been, and will continue to be, developed in a completely open and transparent fashion. Anyone with an interest can review and comment, and access the entire record of past discussion to understand how decisions were reached.    The Internet doubles in size every 10 \\1/2\\ months, and has done so for 30 years. Technology is changing all the time. Keeping up with that rate of exponential growth requires all the parts of the Internet to be continuously improved. Not only the technical functions, but the political and policy functions as well. We can't leave the politics and policies in the 20th century while the technology advances into the 21st.    The transition is entering its final stages. We ask that you support allowing the names community and the accountability working group the time they need to arrive at a responsible and well considered outcome, recognizing that the uncomplicated proposals from numbers and protocols communities are complete. This approach reinforces the U.S. Government's commitment to multi-stakeholder outcomes during this critical time for Internet evolution and Internet governance. Our collective success depends upon a global, open, interoperable, trustworthy, and stable Internet as a platform for the connected devices that Intel builds.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you. We appreciate your testimony.    We will go now to Mr. Matthew Shears, the Representative and Director of Global Internet Policy and Human Rights Project, Center for Democracy and Technology. Mr. Shears, delighted to have you here with us today. We look forward to your comments.</t>
   </si>
   <si>
-    <t>Shears</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shears. Thank you. Chairman Walden, Ranking Member Eshoo, and members of the Subcommittee, thank you for your invitation to testify today. CDT has been deeply involved in the IANA functions transition process since the announcement by NTIA over a year ago. We recognized, as did NTIA, and numerous other stakeholders, that this transition of stewardship over the domain name system was not only important in its own right, but would have significant consequences for international Internet governance and the future of open participatory stakeholder driven governance processes.    I have had the pleasure of participating in the work of both the working group on the IANA transition of the domain names community, as well as the working group on enhancing ICANN's accountability. The IANA transition and ICANN accountability working groups are dealing with very complex challenges. Replacing the oversight role of NTIA is not a simple matter, nor is changing the governance structure of an organization, let alone one as unique as ICANN. Yet the global multi-stakeholder community, comprising businesses, governments, the technical community, civil society, academia, individual users, has risen to the challenge.    Through my work in both working groups, it has become clear to me that these disparate stakeholders are united by shared goals, the continued stability, security, and resiliency of the DNS, and an IANA function that continues to operate in a neutral, fully accountable and transparent manner. It is also clear that this process could not have proceeded without the input of this broad cross-section of the global multi-stakeholder community, and the range of technical, legal, and policy expertise that it brings. After many months of hard work, both the IANA transition and ICANN accountability proposals are now out for public comment.    The two working groups have been working in parallel, but the issues they address are deeply intertwined. The working group on enhancing ICANN's accountability is focused on finding ways to empower the ICANN community, its supporting organizations and advisory committees through increased oversight of ICANN processes and governance. These accountability reforms are also critical to the success of the IANA transition proposal.    The current proposal for the IANA transition places the operation of IANA functions within a subsidiary of ICANN, thereby avoiding needing to create an external entity. In this proposal, ICANN will serve as the contracting entity for the IANA functions, and the subsidiary as the operator. It is clear that, for the proposal to work, ICANN, as the new IANA functions oversight body, must be held accountable so that it provides neutral and transparent oversight of the IANA functions. However, this will only be credibly possible with an ICANN community that is more empowered than it is today. It is, therefore, absolutely essential that the proposed accountability enhancements are embraced and committed to by ICANN and its Board, both at the time of the transition and beyond. These community powers will also guard against capture and mission creep. The new accountability enhancements will make more explicit the narrow mission and purpose of the organization, and will make those delineations harder to change.    New measures, including the ability to question budgets and strategic plans, will be key to keeping in check what ICANN does and how it fulfills its role in the Internet ecosystem. The community will be able to veto changes to bylaws, ensuring that neither ICANN's relationship to the IANA functions, nor these important accountability reforms, can be changed at the whim of the Board, now, or in the future. The community will be able to recall individual Board members, as well as the entire Board, making the Board members more directly accountable to the stakeholders that selected them. These powers will ensure that the leadership of ICANN remains responsive to the global community, and does not take its role in the DNS for granted.    The IANA transition is a culmination of a long planned move to multi-stakeholder management to the DNS. The transition also supports the U.S. Government's commitment to multi-stakeholderism and international Internet policy, as my colleague, Ms. Kehl, described. The NTIA's role in overseeing the IANA functions has been a major point of contention over the years. It will be increasingly hard to credibly refute the calls for a controlling role for government in Internet governance if we do not complete a successful transition.    To conclude, CDT expects, and indeed is working hard to ensure, that the global multi-stakeholder community will develop a transition proposal that satisfies NTIA's principles and stakeholder expectations, safeguards against capture or undue influence by stakeholders, and continues to maintain the stability, security, and resiliency of the DNS. The transition proposal must be accompanied by governance reforms that ensure the accountability of ICANN to the global community, and that keep it closely tethered to its mission and mandate. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Mr. Shears. We appreciate your coming over here to share those comments with us.    We now go to Brett Schaefer, who is the Senior Research Fellow in International Regulatory Affairs for The Heritage Foundation. Mr. Schaefer, delighted to have you before the Subcommittee. Please go ahead with your testimony.</t>
   </si>
   <si>
-    <t>Schaefer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schaefer. Thank you, Mr. Chairman, other distinguished members of the Committee. Thank you very much for inviting me to testify here today. The history of the Internet is one of astounding innovation, growth, and success. A great contributing factor to the growth and success of the Internet is that formal governance and regulation has been light, and relatively non-intrusive. Since 1998, the U.S. Government has contracted with the Internet Corporation for Assigned Names and Numbers, ICANN, to manage most of the technical aspects of Internet governance, including the Internet Assigned Numbers Authority, or the IANA function. This highly successful arrangement is about to change.    As mentioned, in March 2014 the U.S. announced that it intended to end its historical relationship with ICANN. Although the timing of the announcement took many by surprise, the intent is consistent with longstanding U.S. policy to make management of the IANA fully private. This is a very important decision. When the U.S. Government oversight rule ends, ICANN will come under considerable pressure from a number of interested parties to adopt policies that they favor. It is critical that ICANN is sufficient insulted from these pressures to make independent decisions, while simultaneously being responsive and accountable to the broader multi-stakeholder community. This is a very tough line to walk. Failure could lead to inefficiencies, instability, partiality, and other problems that could result in substantial costs, and inhibit a vital medium for free speech and political discourse. There will be only one opportunity to do this, and it must be done right.    I am happy to say that, although much work remains to be done, I have been immensely pleased and impressed with the commitment and progress made to date. To coordinate multi-stakeholder recommendations, ICANN convened community led working groups on stewardship and accountability to draft proposals for the transition. The working groups focused on technical aspects of the IANA have in particular made significant progress. The two teams focused on numbers and protocols submitted proposals in January that appear to have consensus support in the multi-stakeholder community. The third group, focused on names, has recently submitted a draft proposal for public comment. This proposal is more complex, and creates a new government structure within ICANN for the IANA.    All three proposals would allow for separability, the ability to change to a different IANA functions operator if ICANN falls short in some way. This is a critical issue. The possibility that ICANN might lose the IANA contract with the U.S. Government, however unlikely, has provided an independent check on ICANN's monopoly position. A key aspect of the stewardship discussion is focused on how to mirror that check after the U.S. role ends. According to some well-informed sources, ICANN is pushing back on separability. Congress needs to pay attention to this issue and clarify its position.    The accountability working group has also made great progress, and has submitted a draft proposal for public comment. In my opinion, the paramount concerns should be to ensure that, one, ICANN is sufficiently insulated against capture by governments or other narrow interests, two, ICANN's purpose is narrowly defined to prevent mission creep, three, an independent review process is in place to adjudicate and issue binding judgments over disputes between ICANN and the community, and four, ICANN is responsive and accountable to the multi-stakeholder community by establishing a means to recalling the Board, individual Board members, approving the budget, and approving a strategic plan. As currently drafted, the accountability proposal addresses all of these concerns. However, sound ideas and intent can be thwarted by poor implementation, and we are far from the end of the process.    The final issue I wanted to highlight is the tight timeframe. Under the terms of the current contract with ICANN, the U.S. Government will have to decide in just a few short months whether to allow the transition to proceed when the current contract expires on September 30, 2015, or whether to extend the current contract to allow the transition proposals to be more fully developed and/or implemented. As a practical matter, NTIA must have the details of the various proposed changes, and evidence of their implementation, well in advance of this date to make an informed decision on whether its conditions for the transition have been met satisfactorily.    Looking at the hurdles that must be cleared, there is very little chance that this deadline will be met. NTIA administrator Lawrence Strickling and ICANN CEO Fadi Chehade have both insisted, and repeatedly stated, that September 30 is not a goal or a--is not a--is a goal, not a deadline. In fact, there shouldn't be any deadline. Congress should hold them to the fact that this transition must be done correctly, not in any particular time, or in any particular deadline format. Once NTIA's contract with ICANN expires, so does its ability to ensure changes considered necessary by the multi-stakeholder community are approved and implemented. Only after an acceptable transition proposal is offered, and all the necessary forms to ICANN are adopted and in effect, should the U.S. end its current arrangement.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
@@ -496,9 +463,6 @@
     <t>400018</t>
   </si>
   <si>
-    <t>Joe Barton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barton. Thank you, Mr. Chairman. One of our witnesses talked about giving the driver the keys, and you talked about who is paying for the insurance. My question is, who is going to police the road? Who is going to be there when something goes wrong? The best of drivers are going to run a stop sign, or exceed the speed limit, and there are various kinds of insurance. Sometimes they pay, sometimes they don't, but if you don't have an enforcement mechanism, you are going to have chaos. And I have yet to hear this vaunted multi-stakeholder process come up with an enforcement mechanism. I have tried to think of international multi-stakeholder institutions. I can't think of one that I think works better, or as well, as, and I hate to say this, but the Federal Government. I wouldn't say the United Nations is a paragon of efficiency. I wouldn't say the International Olympic Committee. I wouldn't even say the World Bank.    So somebody on this panel enlighten me, we have got a system that is not broke. It is the most open, transparent process out there. One of you has talked about the Internet doubling every 10 months. I have been all over the world on various congressional trips. The only place I have had trouble--my laptop because you said the Chinese government was going to bug it if I tried to turn it on.    So why try to change something that, to all intents and purposes, is one of the best multi-stakeholder, transparent, international processes out there that has the benefit of having an enforcement mechanism behind it, which is ultimately the Federal Government? And I will let anybody take a crack at that.</t>
   </si>
   <si>
@@ -667,9 +631,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle [continuing]. Testimony you mentioned that for the proposed governance structure of IANA to work that ICANN must ensure it is accountable to the broader community of stakeholders. Have you seen ICANN take steps to empower the broader community in such a way as to enable this greater accountability, or what concerns still remain?</t>
   </si>
   <si>
@@ -721,9 +682,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman, and good afternoon to you all, and it is a pleasure to be with you. Mr. DelBianco, you have emphasized the need to stress test various proposed ICANN reforms. I certainly agree with that, and you have not suggested such tests for the technical operations of the domain name system. Can we assume that this is because they have not been tested in a real world setting for quite some time?</t>
   </si>
   <si>
@@ -787,9 +745,6 @@
     <t>412421</t>
   </si>
   <si>
-    <t>Adam Kinzinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Well, thank you, Mr. Chairman. I appreciate all of you being here and spending some time with us today, and I know you will be ready to go when that time comes too. But there has been some debate in the multi-stakeholder community over whether ICANN should be permanently granted stewardship of the IANA functions as a condition of the transfer. It seems some believe that in order to keep ICANN accountable to the community, there should be some mechanism to replace them. Mr. Shears, what are your arguments being made in regards to this issue?</t>
   </si>
   <si>
@@ -841,9 +796,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate the panel's testimony today as well. One of my greatest concerns with this transition is the susceptibility of the ICANN to manipulation by foreign governments. Mr. DelBianco, how will stakeholders protect the process from foreign governments if they continue a push for power or unjust control once the United States withdraws its stewardship role?</t>
   </si>
   <si>
@@ -910,9 +862,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Well, thank you, Mr. Chairman. Mr. DelBianco, back to you. One proposal from the ICANN accountability working group is the incorporation of the agreements made between ICANN and NTIA, and the affirmation of commitments into the governing documents of ICANN. Can you elaborate for us on whether or how you think this will help improve accountability?</t>
   </si>
   <si>
@@ -937,18 +886,12 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson [presiding]. Thank you. The Chair recognizes the gentleman from Missouri, Mr. Long, for 5 minutes.</t>
   </si>
   <si>
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman. And K-e-h-l, how do I pronounce that?</t>
   </si>
   <si>
@@ -1004,9 +947,6 @@
   </si>
   <si>
     <t>412563</t>
-  </si>
-  <si>
-    <t>Chris Collins</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. It has been interesting, as we have kind of deep dived this issue, to jump in. This would be your chance to take an extra 4 minutes as we are summing to see if, on the record, you would like to bring something up that we in Congress should be concerned about, worried about, or should take action on. So why don't we maybe start with Mr. DelBianco, and see if you have got something to add here as we conclude?</t>
@@ -1507,11 +1447,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1533,11 +1471,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1557,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1583,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1611,11 +1543,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1635,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1661,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1689,11 +1615,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1713,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1741,11 +1663,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1765,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1793,11 +1711,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1817,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1845,11 +1759,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1869,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1897,11 +1807,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1921,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1949,11 +1855,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1973,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2001,11 +1903,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2025,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2053,11 +1951,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2077,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2105,11 +1999,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2129,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2157,11 +2047,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2181,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2209,11 +2095,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2233,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2261,11 +2143,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2285,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2313,11 +2191,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2337,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2365,11 +2239,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2389,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2417,11 +2287,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2441,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2469,11 +2335,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2493,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2521,11 +2383,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2545,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2573,11 +2431,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2597,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2625,11 +2479,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2649,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2677,11 +2527,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2701,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2729,11 +2575,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2753,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2781,11 +2623,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2805,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2833,11 +2671,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2857,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2885,11 +2719,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2909,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2937,11 +2767,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2961,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2989,11 +2815,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3013,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3041,11 +2863,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3065,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3093,11 +2911,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3117,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3145,11 +2959,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3169,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3197,11 +3007,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3221,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3249,11 +3055,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3273,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3301,11 +3103,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3325,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3353,11 +3151,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3377,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3405,11 +3199,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3429,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3455,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3481,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3507,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3533,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3559,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3585,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3611,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3637,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3663,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3689,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3715,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3741,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3767,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3793,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3819,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3845,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3871,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3897,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3923,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3949,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3975,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4001,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4027,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4053,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4079,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4105,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4131,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4157,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4183,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4209,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4235,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4261,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4287,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4313,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4339,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4365,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4391,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4417,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4443,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4469,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4495,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
-      </c>
-      <c r="G117" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4521,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4547,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
-      </c>
-      <c r="G119" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4573,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4599,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4625,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4651,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4677,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4703,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4729,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4755,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
-      </c>
-      <c r="G127" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4781,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4807,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4833,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4859,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4885,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4911,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4937,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4963,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4989,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5015,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5041,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5067,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5093,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5119,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5145,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5171,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
-      </c>
-      <c r="G143" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5197,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5225,11 +4879,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5249,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5277,11 +4927,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5301,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5329,11 +4975,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5353,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5381,11 +5023,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5405,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5431,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5457,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5483,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5509,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>159</v>
-      </c>
-      <c r="G156" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5535,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5561,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
-      </c>
-      <c r="G158" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5587,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5613,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G160" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5639,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
-      </c>
-      <c r="G161" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5665,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
+        <v>148</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
         <v>159</v>
-      </c>
-      <c r="G162" t="s">
-        <v>160</v>
-      </c>
-      <c r="H162" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5691,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
-      </c>
-      <c r="G163" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5717,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>159</v>
-      </c>
-      <c r="G164" t="s">
+        <v>148</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>160</v>
-      </c>
-      <c r="H164" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5743,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
-      </c>
-      <c r="G165" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5771,11 +5383,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5795,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
-      </c>
-      <c r="G167" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5821,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>159</v>
-      </c>
-      <c r="G168" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5847,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5875,11 +5479,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5899,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
-      </c>
-      <c r="G171" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5927,11 +5527,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5951,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>159</v>
-      </c>
-      <c r="G173" t="s">
-        <v>160</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5979,11 +5575,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6003,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6029,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6055,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6081,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6107,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6133,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
-      </c>
-      <c r="G180" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6159,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G181" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6185,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6211,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
-      </c>
-      <c r="G183" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6237,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6263,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G185" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6289,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
-      </c>
-      <c r="G186" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6315,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6341,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6367,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
-      </c>
-      <c r="G189" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6393,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
-      </c>
-      <c r="G190" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6419,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
-      </c>
-      <c r="G191" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6445,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6471,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
-      </c>
-      <c r="G193" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6499,11 +6055,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6523,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6549,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
-      </c>
-      <c r="G196" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6575,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6601,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
-      </c>
-      <c r="G198" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6627,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6653,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
-      </c>
-      <c r="G200" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6679,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6705,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
-      </c>
-      <c r="G202" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6731,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6757,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
-      </c>
-      <c r="G204" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6783,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6809,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6835,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6863,11 +6391,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6887,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>216</v>
-      </c>
-      <c r="G209" t="s">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6913,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
-      </c>
-      <c r="G210" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6939,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>216</v>
-      </c>
-      <c r="G211" t="s">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6965,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
-      </c>
-      <c r="G212" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6991,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>216</v>
-      </c>
-      <c r="G213" t="s">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7017,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
-      </c>
-      <c r="G214" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7043,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>216</v>
-      </c>
-      <c r="G215" t="s">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7069,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>25</v>
-      </c>
-      <c r="G216" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7095,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7121,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7147,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
-      </c>
-      <c r="G219" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7173,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
-      </c>
-      <c r="G220" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7199,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
-      </c>
-      <c r="G221" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7225,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
-      </c>
-      <c r="G222" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7251,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G223" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7277,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>25</v>
-      </c>
-      <c r="G224" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7303,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>234</v>
-      </c>
-      <c r="G225" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7329,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
-      </c>
-      <c r="G226" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7355,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>234</v>
-      </c>
-      <c r="G227" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7381,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
-      </c>
-      <c r="G228" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7407,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>234</v>
-      </c>
-      <c r="G229" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7433,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
-      </c>
-      <c r="G230" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7459,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>234</v>
-      </c>
-      <c r="G231" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7485,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
-      </c>
-      <c r="G232" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7511,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>234</v>
-      </c>
-      <c r="G233" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7537,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
-      </c>
-      <c r="G234" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7563,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>234</v>
-      </c>
-      <c r="G235" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7589,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
-      </c>
-      <c r="G236" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7615,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
-      </c>
-      <c r="G237" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7641,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>234</v>
-      </c>
-      <c r="G238" t="s">
+        <v>221</v>
+      </c>
+      <c r="G238" t="s"/>
+      <c r="H238" t="s">
         <v>235</v>
-      </c>
-      <c r="H238" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7667,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7693,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>234</v>
-      </c>
-      <c r="G240" t="s">
+        <v>221</v>
+      </c>
+      <c r="G240" t="s"/>
+      <c r="H240" t="s">
         <v>235</v>
-      </c>
-      <c r="H240" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7719,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
-      </c>
-      <c r="G241" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7745,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>234</v>
-      </c>
-      <c r="G242" t="s">
+        <v>221</v>
+      </c>
+      <c r="G242" t="s"/>
+      <c r="H242" t="s">
         <v>235</v>
-      </c>
-      <c r="H242" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7771,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
-      </c>
-      <c r="G243" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7797,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>234</v>
-      </c>
-      <c r="G244" t="s">
+        <v>221</v>
+      </c>
+      <c r="G244" t="s"/>
+      <c r="H244" t="s">
         <v>235</v>
-      </c>
-      <c r="H244" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7823,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
-      </c>
-      <c r="G245" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7849,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>234</v>
-      </c>
-      <c r="G246" t="s">
-        <v>235</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7875,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>25</v>
-      </c>
-      <c r="G247" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7901,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>256</v>
-      </c>
-      <c r="G248" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7927,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
-      </c>
-      <c r="G249" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7953,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>256</v>
-      </c>
-      <c r="G250" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7979,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
-      </c>
-      <c r="G251" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8005,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>256</v>
-      </c>
-      <c r="G252" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8031,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
-      </c>
-      <c r="G253" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8057,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>256</v>
-      </c>
-      <c r="G254" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8083,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
-      </c>
-      <c r="G255" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8109,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>256</v>
-      </c>
-      <c r="G256" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8135,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
-      </c>
-      <c r="G257" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8161,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>256</v>
-      </c>
-      <c r="G258" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8187,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
-      </c>
-      <c r="G259" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8213,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>256</v>
-      </c>
-      <c r="G260" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8239,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
-      </c>
-      <c r="G261" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8265,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>256</v>
-      </c>
-      <c r="G262" t="s">
+        <v>242</v>
+      </c>
+      <c r="G262" t="s"/>
+      <c r="H262" t="s">
         <v>257</v>
-      </c>
-      <c r="H262" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8291,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>25</v>
-      </c>
-      <c r="G263" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8317,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>274</v>
-      </c>
-      <c r="G264" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8343,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>35</v>
-      </c>
-      <c r="G265" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8369,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>274</v>
-      </c>
-      <c r="G266" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8395,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
-      </c>
-      <c r="G267" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8421,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>274</v>
-      </c>
-      <c r="G268" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8447,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
-      </c>
-      <c r="G269" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8473,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>274</v>
-      </c>
-      <c r="G270" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8499,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>35</v>
-      </c>
-      <c r="G271" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8525,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>274</v>
-      </c>
-      <c r="G272" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8551,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>25</v>
-      </c>
-      <c r="G273" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8577,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>274</v>
-      </c>
-      <c r="G274" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8603,13 +7997,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>25</v>
-      </c>
-      <c r="G275" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8629,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
-      </c>
-      <c r="G276" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8655,13 +8045,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8681,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
+        <v>259</v>
+      </c>
+      <c r="G278" t="s"/>
+      <c r="H278" t="s">
         <v>274</v>
-      </c>
-      <c r="G278" t="s">
-        <v>275</v>
-      </c>
-      <c r="H278" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8707,13 +8093,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
-      </c>
-      <c r="G279" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8733,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>274</v>
-      </c>
-      <c r="G280" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8759,13 +8141,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
-      </c>
-      <c r="G281" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8785,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>274</v>
-      </c>
-      <c r="G282" t="s">
-        <v>275</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8811,13 +8189,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
-      </c>
-      <c r="G283" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8837,13 +8213,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>25</v>
-      </c>
-      <c r="G284" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8863,13 +8237,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>297</v>
-      </c>
-      <c r="G285" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8889,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>35</v>
-      </c>
-      <c r="G286" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8915,13 +8285,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>297</v>
-      </c>
-      <c r="G287" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8941,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
-      </c>
-      <c r="G288" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8967,13 +8333,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>297</v>
-      </c>
-      <c r="G289" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8993,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
-      </c>
-      <c r="G290" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9019,13 +8381,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>297</v>
-      </c>
-      <c r="G291" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9045,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>306</v>
-      </c>
-      <c r="G292" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9071,13 +8429,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>309</v>
-      </c>
-      <c r="G293" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9097,13 +8453,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
-      </c>
-      <c r="G294" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9123,13 +8477,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>309</v>
-      </c>
-      <c r="G295" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9149,13 +8501,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>35</v>
-      </c>
-      <c r="G296" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9175,13 +8525,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>309</v>
-      </c>
-      <c r="G297" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9201,13 +8549,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
-      </c>
-      <c r="G298" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9227,13 +8573,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>309</v>
-      </c>
-      <c r="G299" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9253,13 +8597,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>35</v>
-      </c>
-      <c r="G300" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9279,13 +8621,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>309</v>
-      </c>
-      <c r="G301" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9305,13 +8645,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>35</v>
-      </c>
-      <c r="G302" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9331,13 +8669,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>309</v>
-      </c>
-      <c r="G303" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9357,13 +8693,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
-      </c>
-      <c r="G304" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9383,13 +8717,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>309</v>
-      </c>
-      <c r="G305" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9409,13 +8741,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
-      </c>
-      <c r="G306" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9435,13 +8765,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>309</v>
-      </c>
-      <c r="G307" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9461,13 +8789,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>35</v>
-      </c>
-      <c r="G308" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9487,13 +8813,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>309</v>
-      </c>
-      <c r="G309" t="s">
-        <v>310</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9513,13 +8837,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>306</v>
-      </c>
-      <c r="G310" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9539,13 +8861,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>329</v>
-      </c>
-      <c r="G311" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9565,13 +8885,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>35</v>
-      </c>
-      <c r="G312" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9591,13 +8909,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>329</v>
-      </c>
-      <c r="G313" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9617,13 +8933,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
-      </c>
-      <c r="G314" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9643,13 +8957,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>329</v>
-      </c>
-      <c r="G315" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9669,13 +8981,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>35</v>
-      </c>
-      <c r="G316" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9695,13 +9005,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>329</v>
-      </c>
-      <c r="G317" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9721,13 +9029,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
-      </c>
-      <c r="G318" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9747,13 +9053,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>329</v>
-      </c>
-      <c r="G319" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9773,13 +9077,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
-      </c>
-      <c r="G320" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9799,13 +9101,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>329</v>
-      </c>
-      <c r="G321" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9825,13 +9125,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
-      </c>
-      <c r="G322" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9851,13 +9149,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>329</v>
-      </c>
-      <c r="G323" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9877,13 +9173,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>35</v>
-      </c>
-      <c r="G324" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9903,13 +9197,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>329</v>
-      </c>
-      <c r="G325" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9929,13 +9221,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>35</v>
-      </c>
-      <c r="G326" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9955,13 +9245,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>329</v>
-      </c>
-      <c r="G327" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9981,13 +9269,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>35</v>
-      </c>
-      <c r="G328" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10007,13 +9293,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
+        <v>310</v>
+      </c>
+      <c r="G329" t="s"/>
+      <c r="H329" t="s">
         <v>329</v>
-      </c>
-      <c r="G329" t="s">
-        <v>330</v>
-      </c>
-      <c r="H329" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10033,13 +9317,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>35</v>
-      </c>
-      <c r="G330" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10059,13 +9341,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>329</v>
-      </c>
-      <c r="G331" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10085,13 +9365,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>35</v>
-      </c>
-      <c r="G332" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10111,13 +9389,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>329</v>
-      </c>
-      <c r="G333" t="s">
-        <v>330</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10137,13 +9413,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>306</v>
-      </c>
-      <c r="G334" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10163,13 +9437,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
-      </c>
-      <c r="G335" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10189,13 +9461,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>306</v>
-      </c>
-      <c r="G336" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10215,13 +9485,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
-      </c>
-      <c r="G337" t="s">
-        <v>44</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10241,13 +9509,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>306</v>
-      </c>
-      <c r="G338" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10267,13 +9533,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>35</v>
-      </c>
-      <c r="G339" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10293,13 +9557,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>306</v>
-      </c>
-      <c r="G340" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10319,13 +9581,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>35</v>
-      </c>
-      <c r="G341" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10345,13 +9605,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>306</v>
-      </c>
-      <c r="G342" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10371,13 +9629,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>35</v>
-      </c>
-      <c r="G343" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10397,13 +9653,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>306</v>
-      </c>
-      <c r="G344" t="s">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
